--- a/experiment result/128_0.4_40_zs50_kappa_lp.xlsx
+++ b/experiment result/128_0.4_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02913221991823161</v>
+        <v>0.001524672360487206</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02928659543538244</v>
+        <v>0.004760349263250327</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03778358357252419</v>
+        <v>0.002953307233259045</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04932905507956333</v>
+        <v>0.003531360305108742</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04380865663300094</v>
+        <v>0.006262679276503166</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03593031329209263</v>
+        <v>0.003742521897544605</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04558841450657376</v>
+        <v>0.008160663960233449</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03460658933258769</v>
+        <v>0.004058810381259667</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03672315246283812</v>
+        <v>0.003256617018908186</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04169958186442139</v>
+        <v>0.04964625912454047</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06096924677155826</v>
+        <v>0.004853820290166071</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04993458758864043</v>
+        <v>0.02211485666032186</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04631585485789062</v>
+        <v>0.00265399256812503</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05137488986426542</v>
+        <v>0.004705175011218303</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0411665845608235</v>
+        <v>0.003566908799568824</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06201938442758909</v>
+        <v>0.02346896953407836</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05625779841115362</v>
+        <v>0.005252725139723581</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03536149772305749</v>
+        <v>0.0006112615225570479</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05205728548259141</v>
+        <v>0.01603276935672117</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05078627246044626</v>
+        <v>0.004028686766749269</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03005691697612475</v>
+        <v>0.001997163424099595</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03161020391476799</v>
+        <v>0.001491313553061643</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03786907967000999</v>
+        <v>0.004513814770311442</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02111972443020365</v>
+        <v>0.0009042667683832005</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02465548926794669</v>
+        <v>0.0004090169015895955</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05230937698976185</v>
+        <v>0.007295188724331996</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04472934606372279</v>
+        <v>0.003376145393099095</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04278694715323451</v>
+        <v>0.009049452904813968</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04546389822506129</v>
+        <v>0.007981312677711455</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05282847341316847</v>
+        <v>0.005770615984518212</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02785079483798265</v>
+        <v>0.0001521145637245077</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03875910230107978</v>
+        <v>0.001527816737833382</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09286616021417844</v>
+        <v>0.01459778993057548</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02239441067721794</v>
+        <v>0.002103846707468222</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04328567449347113</v>
+        <v>0.005592572064982661</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05317116273373355</v>
+        <v>0.02389447434794765</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03235122408583785</v>
+        <v>0.002097420622633509</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.05351128306311681</v>
+        <v>0.003771495414289077</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05216639887565198</v>
+        <v>0.007211612734077283</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05821097405775333</v>
+        <v>0.02272928798455549</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0455827423243062</v>
+        <v>0.006016695205057901</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02832076729843169</v>
+        <v>0.002425636057118779</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0401840257902339</v>
+        <v>0.007163910439196855</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04496488447259373</v>
+        <v>0.007077896298100672</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03483307201863516</v>
+        <v>0.00756766017437059</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04357717256837938</v>
+        <v>0.00373047794774519</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04278364151121662</v>
+        <v>0.009353659671646811</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02519912177275996</v>
+        <v>0.002139461995688261</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03813007704125378</v>
+        <v>0.0009977848236975273</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02940335115396141</v>
+        <v>0.001242359377154799</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04484212553932138</v>
+        <v>0.00502097582410336</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0346542780939405</v>
+        <v>0.00534309753135103</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01419649780024471</v>
+        <v>0.0005216394293129604</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02072317388646636</v>
+        <v>0.001212770302488094</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03747832855798687</v>
+        <v>0.009865127393575276</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04727514381631237</v>
+        <v>0.005340097608341259</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03163238419657238</v>
+        <v>0.002321132693535494</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03919017870531815</v>
+        <v>0.00536341481793965</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0377282045980345</v>
+        <v>0.003101194648233664</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03799535809391148</v>
+        <v>0.004678283239982097</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01768576041494675</v>
+        <v>0.0004117552169534873</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02868061135076597</v>
+        <v>0.002161744655264995</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03861998340949755</v>
+        <v>0.0107005375036476</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03197298452177925</v>
+        <v>0.001271765723695541</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0294559814171414</v>
+        <v>0.00196500170754421</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04083744832170979</v>
+        <v>0.006232683504977095</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05574338594607693</v>
+        <v>0.003654547426400463</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0350592820915774</v>
+        <v>0.002839802756780327</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.023772925428701</v>
+        <v>0.003637128023388616</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02882116147056045</v>
+        <v>0.001648553572280771</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0299082306312511</v>
+        <v>0.004692140648380189</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02416846135688997</v>
+        <v>0.0004011673671149894</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05119644402560442</v>
+        <v>0.006703099347558769</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0344833893089994</v>
+        <v>0.004041454879535247</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0374043202025165</v>
+        <v>0.004874337165002693</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04285910278759564</v>
+        <v>0.003798333258483004</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02804542896727143</v>
+        <v>0.00109393115547985</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02742186888505744</v>
+        <v>0.001580955091952048</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03114164085755169</v>
+        <v>0.002752827951684551</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02739142085057868</v>
+        <v>0.004627842382857928</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.05210261383771815</v>
+        <v>0.00736695704589972</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.07113627119754221</v>
+        <v>0.0260132087222852</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.032521105129178</v>
+        <v>0.008572726328277354</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03301945837076857</v>
+        <v>0.003359447223167676</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.07271812583034096</v>
+        <v>0.03176237932510458</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03539240837095695</v>
+        <v>0.001520572540794464</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.05372781190075172</v>
+        <v>0.002599681466398371</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.04648586075870723</v>
+        <v>0.008291341337012547</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03742565569942416</v>
+        <v>0.006802451795048512</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.05111607639902371</v>
+        <v>0.001950681014876151</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.05621182888068318</v>
+        <v>0.01365664517970036</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02673241672049042</v>
+        <v>0.002530203821911537</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.04969235848549343</v>
+        <v>0.005874101046318787</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.03621202374402035</v>
+        <v>0.004870957984496097</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02712264361793902</v>
+        <v>0.001655214134906557</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03497697251289318</v>
+        <v>0.0003699238693803943</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.03610596578204826</v>
+        <v>0.004461828968175494</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.03764286945095609</v>
+        <v>0.004266150928646567</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.06057832667827025</v>
+        <v>0.008233401085195576</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.03267683421178508</v>
+        <v>0.004235180031925274</v>
       </c>
     </row>
   </sheetData>
